--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -601,57 +601,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10174,158 +10174,158 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>18</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" s="2" t="inlineStr">
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F188" s="2" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>18</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>18</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>incorrectly</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>2</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11266,1040 +11266,1040 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E209" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F228" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12693,81 +12693,81 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>21</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>7</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G341" s="2" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18234,156 +18234,156 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="F449" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G449" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="L449" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="F450" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G450" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -23873,7 +23873,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G451" t="b">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24266,208 +24266,208 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" t="n">
         <v>42</v>
       </c>
-      <c r="B460" s="2" t="inlineStr">
+      <c r="B460" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" s="2" t="inlineStr">
+      <c r="C460" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" s="2" t="n">
+      <c r="D460" t="n">
         <v>3</v>
       </c>
-      <c r="E460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L460" s="2" t="inlineStr">
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K460" t="b">
+        <v>1</v>
+      </c>
+      <c r="L460" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" t="n">
         <v>42</v>
       </c>
-      <c r="B461" s="2" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" s="2" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" s="2" t="n">
+      <c r="D461" t="n">
         <v>4</v>
       </c>
-      <c r="E461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L461" s="2" t="inlineStr">
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" t="b">
+        <v>1</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K461" t="b">
+        <v>1</v>
+      </c>
+      <c r="L461" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" t="n">
         <v>42</v>
       </c>
-      <c r="B462" s="2" t="inlineStr">
+      <c r="B462" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" s="2" t="inlineStr">
+      <c r="C462" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" s="2" t="n">
+      <c r="D462" t="n">
         <v>5</v>
       </c>
-      <c r="E462" s="2" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" s="2" t="inlineStr">
+      <c r="F462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L462" s="2" t="inlineStr">
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F491" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G491" s="2" t="b">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="L491" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
@@ -577,81 +577,81 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMU calibration required Calibrate IMU .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>IMU calibration required Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" t="n">
         <v>16</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" t="n">
         <v>3</v>
       </c>
-      <c r="E168" s="2" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" s="2" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>16</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>4</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10174,158 +10174,158 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F188" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" t="inlineStr">
+      <c r="D189" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>incorrectly</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11266,1040 +11266,1040 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" t="n">
         <v>20</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" t="n">
         <v>3</v>
       </c>
-      <c r="E209" s="2" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>20</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>4</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>20</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" t="n">
         <v>5</v>
       </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>20</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>6</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>20</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>7</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>20</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>8</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>20</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>9</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>20</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>10</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>20</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>11</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>20</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>12</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>20</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>13</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>20</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>14</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>20</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>15</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>20</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>16</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>20</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>17</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>20</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>18</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>20</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>19</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>20</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>20</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>21</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>22</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,57 +12717,57 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G341" s="2" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -18234,156 +18234,156 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="F449" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G449" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="L449" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="F450" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G450" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -23873,7 +23873,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G451" t="b">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -24266,208 +24266,208 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="n">
+      <c r="A460" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B460" t="inlineStr">
+      <c r="B460" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
+      <c r="C460" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" t="n">
+      <c r="D460" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K460" t="b">
-        <v>1</v>
-      </c>
-      <c r="L460" t="inlineStr">
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J460" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L460" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="n">
+      <c r="A461" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B461" t="inlineStr">
+      <c r="B461" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr">
+      <c r="C461" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" t="n">
+      <c r="D461" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" t="b">
-        <v>1</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K461" t="b">
-        <v>1</v>
-      </c>
-      <c r="L461" t="inlineStr">
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J461" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L461" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="n">
+      <c r="A462" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B462" t="inlineStr">
+      <c r="B462" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
+      <c r="C462" s="2" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E462" t="inlineStr">
+      <c r="E462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" t="inlineStr">
+      <c r="F462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
+      <c r="G462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J462" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L462" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="F491" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G491" s="2" t="b">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="L491" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G493" s="2" t="b">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="L493" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G495" s="2" t="b">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="L495" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
